--- a/Tensile_Properties_of_Sub-sized_Specimens.xlsx
+++ b/Tensile_Properties_of_Sub-sized_Specimens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12082\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12082\Desktop\Subsized-Specimens-Tensile-Properties-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F4EFDC-6EE3-42C2-9124-4F040049C11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5721818E-DF72-4ED6-ACFA-E199D0941364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="480" xr2:uid="{056C6B62-9E96-4E2C-89B8-A5B1ECEDCEF3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="294">
   <si>
     <t>Treatment</t>
   </si>
@@ -1473,6 +1473,9 @@
   <si>
     <t xml:space="preserve">Stress Relieved </t>
   </si>
+  <si>
+    <t>Irradiation Dose (dpa)</t>
+  </si>
 </sst>
 </file>
 
@@ -2220,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC41E23-D24B-4035-9085-C122B214DAAD}">
   <dimension ref="A1:BC1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AO748" sqref="AO748"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="110" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="AL2" s="15" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="AM2" s="15" t="s">
         <v>164</v>
